--- a/src/main/resources/com/relative/QuskyOro/Matrices/IvaServicios.xlsx
+++ b/src/main/resources/com/relative/QuskyOro/Matrices/IvaServicios.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\extre\Documents\proyectos\proyectos drools\QuskyOro\src\main\resources\com\relative\QuskyOro\Matrices\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC56D442-FD4F-4862-B572-48F1CA43E4C6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,23 +25,23 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author> </author>
+    <author/>
   </authors>
   <commentList>
-    <comment ref="F9" authorId="0">
+    <comment ref="F9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
-            <b val="true"/>
+            <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Se debe ingresar 2 valores separados por coma ",", el priimer valor hace referencia al iva de la tazacion base, el segundo valor hace referencia al valor de crecimmiento, se aplica la siguiente formula:
+          <t>Se debe ingresar 2 valores separados por coma ",", el priimer valor hace referencia al iva de la tazacion base, el segundo valor hace referencia al valor de crecimmiento, se aplica la siguiente formula:
  iva*crecimiento ejemplo :
                                          se ingresa 1.12,1.05
                                          el sistema realiza el calculo 1.12 * 1.05
@@ -44,18 +49,18 @@
         </r>
       </text>
     </comment>
-    <comment ref="G9" authorId="0">
+    <comment ref="G9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
-            <b val="true"/>
+            <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Se debe ingresar 2 valores separados por coma ",", el priimer valor hace referencia al iva de la custodia base, el segundo valor hace referencia al valor de crecimmiento, se aplica la siguiente formula:
+          <t>Se debe ingresar 2 valores separados por coma ",", el priimer valor hace referencia al iva de la custodia base, el segundo valor hace referencia al valor de crecimmiento, se aplica la siguiente formula:
  iva*crecimiento ejemplo :
                                          se ingresa 1.12,1.05
                                          el sistema realiza el calculo 1.12 * 1.05
@@ -63,18 +68,18 @@
         </r>
       </text>
     </comment>
-    <comment ref="H9" authorId="0">
+    <comment ref="H9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
-            <b val="true"/>
+            <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Se debe ingresar 2 valores separados por coma ",", el priimer valor hace referencia al iva de la transporte base, el segundo valor hace referencia al valor de crecimmiento, se aplica la siguiente formula:
+          <t>Se debe ingresar 2 valores separados por coma ",", el priimer valor hace referencia al iva de la transporte base, el segundo valor hace referencia al valor de crecimmiento, se aplica la siguiente formula:
  iva*crecimiento ejemplo :
                                          se ingresa 1.12,1.05
                                          el sistema realiza el calculo 1.12 * 1.05
@@ -82,18 +87,18 @@
         </r>
       </text>
     </comment>
-    <comment ref="I9" authorId="0">
+    <comment ref="I9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
-            <b val="true"/>
+            <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Se debe ingresar 2 valores separados por coma ",", el priimer valor hace referencia al iva de resguardo base, el segundo valor hace referencia al valor de crecimmiento, se aplica la siguiente formula:
+          <t>Se debe ingresar 2 valores separados por coma ",", el priimer valor hace referencia al iva de resguardo base, el segundo valor hace referencia al valor de crecimmiento, se aplica la siguiente formula:
  iva*crecimiento ejemplo :
                                          se ingresa 1.12,1.05
                                          el sistema realiza el calculo 1.12 * 1.05
@@ -101,63 +106,63 @@
         </r>
       </text>
     </comment>
-    <comment ref="J9" authorId="0">
+    <comment ref="J9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
-            <b val="true"/>
+            <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">En esta accion se guarda los valores calculados en la accion con titulo IVA E INCREMENTO TASACION</t>
+          <t>En esta accion se guarda los valores calculados en la accion con titulo IVA E INCREMENTO TASACION</t>
         </r>
       </text>
     </comment>
-    <comment ref="K9" authorId="0">
+    <comment ref="K9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
-            <b val="true"/>
+            <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">En esta accion se guarda los valores calculados en la accion con titulo IVA E INCREMENTO CUSTODIA</t>
+          <t>En esta accion se guarda los valores calculados en la accion con titulo IVA E INCREMENTO CUSTODIA</t>
         </r>
       </text>
     </comment>
-    <comment ref="L9" authorId="0">
+    <comment ref="L9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
-            <b val="true"/>
+            <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">En esta accion se guarda los valores calculados en la accion con titulo IVA E INCREMENTO TRANSPORTE</t>
+          <t>En esta accion se guarda los valores calculados en la accion con titulo IVA E INCREMENTO TRANSPORTE</t>
         </r>
       </text>
     </comment>
-    <comment ref="M9" authorId="0">
+    <comment ref="M9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
-            <b val="true"/>
+            <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">En esta accion se guarda los valores calculados en la accion con titulo IVA E INCREMENTO RESGUARDO</t>
+          <t>En esta accion se guarda los valores calculados en la accion con titulo IVA E INCREMENTO RESGUARDO</t>
         </r>
       </text>
     </comment>
@@ -168,175 +173,157 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="47">
   <si>
-    <t xml:space="preserve">RuleSet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Import</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.relative.brecreditosnuevos.objetosnegocio.Cliente,com.relative.brecreditosnuevos.objetosnegocio.Opcion,com.relative.brecreditosnuevos.objetosnegocio.VariablesNegocio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Variables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">java.lang.Double auxTasacion, java.lang.Double auxCustodia,java.lang.Double auxTransporte,java.lang.Double auxResguardo,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RuleTable IvaServicios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RULEFLOW-GROUP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONDITION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACTION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">variablesNegocio:VariablesNegocio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cliente: Cliente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">opcion:Opcion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">variablesNegocio.getTipoOperacion() == "$param"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cliente.getGrupo()==$param</t>
-  </si>
-  <si>
-    <t xml:space="preserve">opcion.getTIPO_OFERTA()=="$param"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">auxTasacion = Double.valueOf($1) * Double.valueOf($2);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">auxCustodia = Double.valueOf($1) * Double.valueOf($2);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">auxTransporte = Double.valueOf($1) * Double.valueOf($2);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">auxResguardo = Double.valueOf($1) * Double.valueOf($2);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cliente.setTasacion(auxTasacion);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cliente.setCustodia(auxCustodia);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cliente.setTransporte(auxTransporte);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cliente.setResguardo(auxResguardo);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GRUPO REGLA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIPO OPERACION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GRUPO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARTERA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IVA E INCREMENTO TASACION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IVA E INCREMENTO CUSTODIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IVA E INCREMENTO TRANSPORTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IVA E INCREMENTO RESGUARDO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CALCULO TASACION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CALCULO  CUSTODIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CALCULO TRANSPORTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CALCULO RESGUARDO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALOR DE IVA E INCREMENTO DE SERVICIOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GrupoIvaServicios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12,1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">true</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12,1.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12,1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12,1.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O</t>
+    <t>RuleSet</t>
+  </si>
+  <si>
+    <t>Import</t>
+  </si>
+  <si>
+    <t>Variables</t>
+  </si>
+  <si>
+    <t>java.lang.Double auxTasacion, java.lang.Double auxCustodia,java.lang.Double auxTransporte,java.lang.Double auxResguardo,</t>
+  </si>
+  <si>
+    <t>RuleTable IvaServicios</t>
+  </si>
+  <si>
+    <t>RULEFLOW-GROUP</t>
+  </si>
+  <si>
+    <t>CONDITION</t>
+  </si>
+  <si>
+    <t>ACTION</t>
+  </si>
+  <si>
+    <t>variablesNegocio:VariablesNegocio</t>
+  </si>
+  <si>
+    <t>cliente: Cliente</t>
+  </si>
+  <si>
+    <t>opcion:Opcion</t>
+  </si>
+  <si>
+    <t>variablesNegocio.getTipoOperacion() == "$param"</t>
+  </si>
+  <si>
+    <t>cliente.getGrupo()==$param</t>
+  </si>
+  <si>
+    <t>opcion.getTIPO_OFERTA()=="$param"</t>
+  </si>
+  <si>
+    <t>auxTasacion = Double.valueOf($1) * Double.valueOf($2);</t>
+  </si>
+  <si>
+    <t>auxCustodia = Double.valueOf($1) * Double.valueOf($2);</t>
+  </si>
+  <si>
+    <t>auxTransporte = Double.valueOf($1) * Double.valueOf($2);</t>
+  </si>
+  <si>
+    <t>auxResguardo = Double.valueOf($1) * Double.valueOf($2);</t>
+  </si>
+  <si>
+    <t>cliente.setTasacion(auxTasacion);</t>
+  </si>
+  <si>
+    <t>cliente.setCustodia(auxCustodia);</t>
+  </si>
+  <si>
+    <t>cliente.setTransporte(auxTransporte);</t>
+  </si>
+  <si>
+    <t>cliente.setResguardo(auxResguardo);</t>
+  </si>
+  <si>
+    <t>GRUPO REGLA</t>
+  </si>
+  <si>
+    <t>TIPO OPERACION</t>
+  </si>
+  <si>
+    <t>GRUPO</t>
+  </si>
+  <si>
+    <t>CARTERA</t>
+  </si>
+  <si>
+    <t>IVA E INCREMENTO TASACION</t>
+  </si>
+  <si>
+    <t>IVA E INCREMENTO CUSTODIA</t>
+  </si>
+  <si>
+    <t>IVA E INCREMENTO TRANSPORTE</t>
+  </si>
+  <si>
+    <t>IVA E INCREMENTO RESGUARDO</t>
+  </si>
+  <si>
+    <t>CALCULO TASACION</t>
+  </si>
+  <si>
+    <t>CALCULO  CUSTODIA</t>
+  </si>
+  <si>
+    <t>CALCULO TRANSPORTE</t>
+  </si>
+  <si>
+    <t>CALCULO RESGUARDO</t>
+  </si>
+  <si>
+    <t>VALOR DE IVA E INCREMENTO DE SERVICIOS</t>
+  </si>
+  <si>
+    <t>GrupoIvaServicios</t>
+  </si>
+  <si>
+    <t>NUE</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>1.12,1</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>1.12,1.05</t>
+  </si>
+  <si>
+    <t>1.12,1.1</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>1.12,1.15</t>
+  </si>
+  <si>
+    <t>NOV</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>com.relative.QuskyOro.ObjetosNegocio.Cliente,com.relative.QuskyOro.ObjetosNegocio.Opcion,com.relative.QuskyOro.ObjetosNegocio.VariablesNegocio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -359,7 +346,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -367,7 +354,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
@@ -426,166 +413,135 @@
     </fill>
   </fills>
   <borders count="4">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="24">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -644,13 +600,29 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -664,9 +636,15 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>284040</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="0" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="2" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -678,7 +656,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -688,9 +666,15 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -709,9 +693,15 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>284040</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="3" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -723,7 +713,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -733,9 +723,15 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -754,9 +750,15 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>284040</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="4" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -768,7 +770,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -778,9 +780,15 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -799,9 +807,15 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>284040</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="5" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -813,7 +827,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -823,9 +837,15 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -844,9 +864,15 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>284040</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="6" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -858,7 +884,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -868,9 +894,15 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -889,9 +921,15 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>284040</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="7" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -903,7 +941,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -913,9 +951,15 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -934,9 +978,15 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>284040</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="8" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -948,7 +998,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -958,9 +1008,15 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -979,9 +1035,15 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>284040</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="9" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -993,7 +1055,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -1003,9 +1065,15 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -1024,9 +1092,15 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>284040</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="10" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1038,7 +1112,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -1048,9 +1122,15 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -1069,9 +1149,15 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>284040</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="11" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1083,7 +1169,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -1093,9 +1179,15 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -1114,9 +1206,15 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>284040</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="12" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1128,7 +1226,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -1138,9 +1236,15 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -1159,9 +1263,15 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>284040</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="13" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1173,7 +1283,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -1183,9 +1293,15 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -1204,9 +1320,15 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>284040</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="14" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1218,7 +1340,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -1228,9 +1350,15 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -1249,9 +1377,15 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>284040</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="15" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1263,7 +1397,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -1273,38 +1407,728 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1040" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7620000" cy="7620000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1038" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7620000" cy="7620000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1036" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7620000" cy="7620000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1034" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7620000" cy="7620000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1032" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7620000" cy="7620000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1030" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7620000" cy="7620000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1028" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7620000" cy="7620000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1026" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7620000" cy="7620000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:M21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:ALY21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="1" width="20.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="22.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="6" style="1" width="20.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1013" min="11" style="1" width="16.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1014" style="0" width="16.56"/>
+    <col min="1" max="4" width="20.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23" style="1" customWidth="1"/>
+    <col min="6" max="10" width="20.6640625" style="1" customWidth="1"/>
+    <col min="11" max="1013" width="16.5546875" style="1" customWidth="1"/>
+    <col min="1014" max="1025" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1321,7 +2145,7 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1336,13 +2160,13 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -1355,13 +2179,13 @@
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>3</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>4</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -1374,10 +2198,10 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -1391,56 +2215,56 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="D6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="G6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="H6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>8</v>
-      </c>
       <c r="I6" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="35.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:13" ht="35.700000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="6"/>
       <c r="C7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="E7" s="11" t="s">
         <v>10</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>11</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
@@ -1451,583 +2275,582 @@
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
     </row>
-    <row r="8" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="E8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="F8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="G8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="H8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="I8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="J8" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="13" t="s">
+      <c r="K8" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="13" t="s">
+      <c r="L8" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="13" t="s">
+      <c r="M8" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="M8" s="13" t="s">
-        <v>22</v>
-      </c>
     </row>
-    <row r="9" customFormat="false" ht="35.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:13" ht="35.700000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
       <c r="B9" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="D9" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="E9" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="F9" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="G9" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="H9" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="17" t="s">
+      <c r="I9" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="17" t="s">
+      <c r="J9" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="17" t="s">
+      <c r="K9" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="K9" s="17" t="s">
+      <c r="L9" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="L9" s="17" t="s">
+      <c r="M9" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="M9" s="17" t="s">
+    </row>
+    <row r="10" spans="1:13" ht="35.700000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
         <v>34</v>
       </c>
+      <c r="B10" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="21">
+        <v>1</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="L10" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="M10" s="23" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="10" customFormat="false" ht="35.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="18" t="s">
+    <row r="11" spans="1:13" ht="35.700000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="C11" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="D11" s="21">
+        <v>2</v>
+      </c>
+      <c r="E11" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="21" t="n">
+      <c r="F11" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="K11" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="L11" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="M11" s="23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="21">
+        <v>3</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="K12" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="L12" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="M12" s="23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="35.700000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="21">
         <v>1</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E13" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="I10" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="J10" s="23" t="s">
+      <c r="G13" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="K13" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="L13" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="M13" s="23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="35.700000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="21">
+        <v>2</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="K14" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="L14" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="M14" s="23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="21">
+        <v>3</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="I15" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="J15" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="K15" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="L15" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="M15" s="23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="35.700000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="21">
+        <v>1</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="J16" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="K16" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="L16" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="M16" s="23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="35.700000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="21">
+        <v>2</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="K10" s="23" t="s">
+      <c r="G17" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="L10" s="23" t="s">
+      <c r="H17" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="M10" s="23" t="s">
+      <c r="I17" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="J17" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="K17" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="L17" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="M17" s="23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="21">
+        <v>3</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="I18" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="J18" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="K18" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="L18" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="M18" s="23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="35.700000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="21">
+        <v>1</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I19" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="J19" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="K19" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="L19" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="M19" s="23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="35.700000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="21">
+        <v>2</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" s="23" t="s">
         <v>40</v>
       </c>
+      <c r="G20" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="I20" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="J20" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="K20" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="L20" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="M20" s="23" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="11" customFormat="false" ht="35.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="18" t="s">
+    <row r="21" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="E11" s="22" t="s">
+      <c r="C21" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="21">
+        <v>3</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="I21" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="I11" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="J11" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="K11" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="L11" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="M11" s="23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="H12" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="I12" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="J12" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="K12" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="L12" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="M12" s="23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="35.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="H13" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="I13" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="J13" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="K13" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="L13" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="M13" s="23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="35.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="G14" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="H14" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="I14" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="J14" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="K14" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="L14" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="M14" s="23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="G15" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="H15" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="I15" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="J15" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="K15" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="L15" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="M15" s="23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="35.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="F16" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="G16" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="H16" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="I16" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="J16" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="K16" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="L16" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="M16" s="23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="35.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="G17" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="H17" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="I17" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="J17" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="K17" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="L17" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="M17" s="23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="E18" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="F18" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="G18" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="H18" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="I18" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="J18" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="K18" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="L18" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="M18" s="23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="35.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="F19" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="G19" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="H19" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="I19" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="J19" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="K19" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="L19" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="M19" s="23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="35.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="E20" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="F20" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="G20" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="H20" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="I20" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="J20" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="K20" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="L20" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="M20" s="23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="E21" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="F21" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="G21" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="H21" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="I21" s="23" t="s">
-        <v>39</v>
-      </c>
       <c r="J21" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K21" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L21" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M21" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/main/resources/com/relative/QuskyOro/Matrices/IvaServicios.xlsx
+++ b/src/main/resources/com/relative/QuskyOro/Matrices/IvaServicios.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\extre\Documents\proyectos\proyectos drools\QuskyOro\src\main\resources\com\relative\QuskyOro\Matrices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC56D442-FD4F-4862-B572-48F1CA43E4C6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E5D8FC9-C9E8-4589-9216-64EEC8B90210}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -311,7 +311,7 @@
     <t>O</t>
   </si>
   <si>
-    <t>com.relative.QuskyOro.ObjetosNegocio.Cliente,com.relative.QuskyOro.ObjetosNegocio.Opcion,com.relative.QuskyOro.ObjetosNegocio.VariablesNegocio</t>
+    <t>com.relative.QuskiOro.ObjetosNegocio.Cliente,com.relative.QuskiOro.ObjetosNegocio.Opcion,com.relative.QuskiOro.ObjetosNegocio.VariablesNegocio</t>
   </si>
 </sst>
 </file>
@@ -2116,7 +2116,7 @@
   <dimension ref="A1:ALY21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
